--- a/HBO max.xlsx
+++ b/HBO max.xlsx
@@ -5,18 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Documentos\Insper\2_semestre\CDados\Projeto-1_Cdados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\Documents\Insper\2_semestre\CDados\Projeto-1_Cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="575" documentId="11_2BBEB10FAC7318E4E6D40E32E3B9EB45E12C34CB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82C352AC-2E8B-4F24-B308-FDAA7329512E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841C41B9-A135-44D9-A317-E6E4C6780ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="357" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="239" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2372,7 +2382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A286" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A303" sqref="A303"/>
     </sheetView>
   </sheetViews>
@@ -2419,7 +2429,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2555,7 +2565,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2723,7 +2733,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2763,7 +2773,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2787,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2835,7 +2845,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -3659,7 +3669,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3731,7 +3741,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3987,7 +3997,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -4115,7 +4125,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -4171,7 +4181,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -4275,7 +4285,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4347,7 +4357,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4603,7 +4613,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -4619,7 +4629,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -4800,13 +4810,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B248"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="192.88671875" customWidth="1"/>
+    <col min="1" max="1" width="211.5546875" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4823,7 +4833,7 @@
         <v>302</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4967,7 +4977,7 @@
         <v>320</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -5119,7 +5129,7 @@
         <v>339</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5167,7 +5177,7 @@
         <v>345</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5263,7 +5273,7 @@
         <v>357</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5335,7 +5345,7 @@
         <v>366</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5415,7 +5425,7 @@
         <v>376</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5567,7 +5577,7 @@
         <v>395</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5767,7 +5777,7 @@
         <v>420</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -6575,7 +6585,7 @@
         <v>521</v>
       </c>
       <c r="B221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -6599,7 +6609,7 @@
         <v>524</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -6759,7 +6769,7 @@
         <v>544</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -6791,7 +6801,7 @@
         <v>548</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
